--- a/guide/sdr-deathRecord-DeathRecord.xlsx
+++ b/guide/sdr-deathRecord-DeathRecord.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="224">
   <si>
     <t>Path</t>
   </si>
@@ -471,217 +471,221 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
+    <t xml:space="preserve">Resource {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/sdr-deathRecord-DeathRecordContents]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A resource in the bundle</t>
+  </si>
+  <si>
+    <t>The Resources for the entry.</t>
+  </si>
+  <si>
+    <t>Bundle.entry.search</t>
+  </si>
+  <si>
+    <t>Search related information</t>
+  </si>
+  <si>
+    <t>Information about the search process that lead to the creation of this entry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdl-2
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.search.mode</t>
+  </si>
+  <si>
+    <t>match | include | outcome - why this is in the result set</t>
+  </si>
+  <si>
+    <t>Why this entry is in the result set - whether it's included as a match or because of an _include requirement.</t>
+  </si>
+  <si>
+    <t>There is only one mode. In some corner cases, a resource may be included because it is both a match and an include. In these circumstances, 'match' takes precedence.</t>
+  </si>
+  <si>
+    <t>Why an entry is in the result set - whether it's included as a match or because of an _include requirement.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/search-entry-mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry.search.score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Search ranking (between 0 and 1)</t>
+  </si>
+  <si>
+    <t>When searching, the server's search ranking score for the entry.</t>
+  </si>
+  <si>
+    <t>Servers are not required to return a ranking score. 1 is most relevant, and 0 is least relevant. Often, search results are sorted by score, but the client may specify a different sort order.</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request</t>
+  </si>
+  <si>
+    <t>Transaction Related Information</t>
+  </si>
+  <si>
+    <t>Additional information about how this entry should be processed as part of a transaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdl-3
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.method</t>
+  </si>
+  <si>
+    <t>GET | POST | PUT | DELETE</t>
+  </si>
+  <si>
+    <t>The HTTP verb for this entry in either a change history, or a transaction/ transaction response.</t>
+  </si>
+  <si>
+    <t>HTTP verbs (in the HTTP command line).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/http-verb</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.url</t>
+  </si>
+  <si>
+    <t>URL for HTTP equivalent of this entry</t>
+  </si>
+  <si>
+    <t>The URL for this entry, relative to the root (the address to which the request is posted).</t>
+  </si>
+  <si>
+    <t>E.g. for a Patient Create, the method would be "POST" and the URL would be "Patient". For a Patient Update, the method would be PUT, and the URL would be "Patient/[id]".</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>For managing cache currency</t>
+  </si>
+  <si>
+    <t>If the ETag values match, return a 304 Not Modified status. See the API documentation for ["Conditional Read"](http.html#cread).</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>For managing update contention</t>
+  </si>
+  <si>
+    <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http.html#cread).</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Only perform the operation if the Etag value matches. For more information, see the API section ["Managing Resource Contention"](http.html#concurrency).</t>
+  </si>
+  <si>
+    <t>Bundle.entry.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>For conditional creates</t>
+  </si>
+  <si>
+    <t>Instruct the server not to perform the create if a specified resource already exists. For further information, see the API documentation for ["Conditional Create"](http.html#ccreate). This is just the query portion of the URL - what follows the "?" (not including the "?").</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdl-4
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.status</t>
+  </si>
+  <si>
+    <t>Status response code (text optional)</t>
+  </si>
+  <si>
+    <t>The status code returned by processing this entry. The status SHALL start with a 3 digit HTTP code (e.g. 404) and may contain the standard HTTP description associated with the status code.</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.location</t>
+  </si>
+  <si>
+    <t>The location, if the operation returns a location</t>
+  </si>
+  <si>
+    <t>The location header created by processing this operation.</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.etag</t>
+  </si>
+  <si>
+    <t>The etag for the resource (if relevant)</t>
+  </si>
+  <si>
+    <t>The etag for the resource, it the operation for the entry produced a versioned resource (see [Resource Metadata and Versioning](http.html#versioning) and [Managing Resource Contention](http.html#concurrency)).</t>
+  </si>
+  <si>
+    <t>Etags match the Resource.meta.versionId. The ETag has to match the version id in the header if a resource is included.</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.lastModified</t>
+  </si>
+  <si>
+    <t>Server's date time modified</t>
+  </si>
+  <si>
+    <t>The date/time that the resource was modified on the server.</t>
+  </si>
+  <si>
+    <t>This has to match the same time in the meta header if a resource is included.</t>
+  </si>
+  <si>
+    <t>Bundle.entry.response.outcome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Resource {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>A resource in the bundle</t>
-  </si>
-  <si>
-    <t>The Resources for the entry.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.search</t>
-  </si>
-  <si>
-    <t>Search related information</t>
-  </si>
-  <si>
-    <t>Information about the search process that lead to the creation of this entry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdl-2
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.search.mode</t>
-  </si>
-  <si>
-    <t>match | include | outcome - why this is in the result set</t>
-  </si>
-  <si>
-    <t>Why this entry is in the result set - whether it's included as a match or because of an _include requirement.</t>
-  </si>
-  <si>
-    <t>There is only one mode. In some corner cases, a resource may be included because it is both a match and an include. In these circumstances, 'match' takes precedence.</t>
-  </si>
-  <si>
-    <t>Why an entry is in the result set - whether it's included as a match or because of an _include requirement.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/search-entry-mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry.search.score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Search ranking (between 0 and 1)</t>
-  </si>
-  <si>
-    <t>When searching, the server's search ranking score for the entry.</t>
-  </si>
-  <si>
-    <t>Servers are not required to return a ranking score. 1 is most relevant, and 0 is least relevant. Often, search results are sorted by score, but the client may specify a different sort order.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request</t>
-  </si>
-  <si>
-    <t>Transaction Related Information</t>
-  </si>
-  <si>
-    <t>Additional information about how this entry should be processed as part of a transaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdl-3
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.method</t>
-  </si>
-  <si>
-    <t>GET | POST | PUT | DELETE</t>
-  </si>
-  <si>
-    <t>The HTTP verb for this entry in either a change history, or a transaction/ transaction response.</t>
-  </si>
-  <si>
-    <t>HTTP verbs (in the HTTP command line).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/http-verb</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.url</t>
-  </si>
-  <si>
-    <t>URL for HTTP equivalent of this entry</t>
-  </si>
-  <si>
-    <t>The URL for this entry, relative to the root (the address to which the request is posted).</t>
-  </si>
-  <si>
-    <t>E.g. for a Patient Create, the method would be "POST" and the URL would be "Patient". For a Patient Update, the method would be PUT, and the URL would be "Patient/[id]".</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>For managing cache currency</t>
-  </si>
-  <si>
-    <t>If the ETag values match, return a 304 Not Modified status. See the API documentation for ["Conditional Read"](http.html#cread).</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>For managing update contention</t>
-  </si>
-  <si>
-    <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http.html#cread).</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Only perform the operation if the Etag value matches. For more information, see the API section ["Managing Resource Contention"](http.html#concurrency).</t>
-  </si>
-  <si>
-    <t>Bundle.entry.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>For conditional creates</t>
-  </si>
-  <si>
-    <t>Instruct the server not to perform the create if a specified resource already exists. For further information, see the API documentation for ["Conditional Create"](http.html#ccreate). This is just the query portion of the URL - what follows the "?" (not including the "?").</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdl-4
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.status</t>
-  </si>
-  <si>
-    <t>Status response code (text optional)</t>
-  </si>
-  <si>
-    <t>The status code returned by processing this entry. The status SHALL start with a 3 digit HTTP code (e.g. 404) and may contain the standard HTTP description associated with the status code.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.location</t>
-  </si>
-  <si>
-    <t>The location, if the operation returns a location</t>
-  </si>
-  <si>
-    <t>The location header created by processing this operation.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.etag</t>
-  </si>
-  <si>
-    <t>The etag for the resource (if relevant)</t>
-  </si>
-  <si>
-    <t>The etag for the resource, it the operation for the entry produced a versioned resource (see [Resource Metadata and Versioning](http.html#versioning) and [Managing Resource Contention](http.html#concurrency)).</t>
-  </si>
-  <si>
-    <t>Etags match the Resource.meta.versionId. The ETag has to match the version id in the header if a resource is included.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.lastModified</t>
-  </si>
-  <si>
-    <t>Server's date time modified</t>
-  </si>
-  <si>
-    <t>The date/time that the resource was modified on the server.</t>
-  </si>
-  <si>
-    <t>This has to match the same time in the meta header if a resource is included.</t>
-  </si>
-  <si>
-    <t>Bundle.entry.response.outcome</t>
   </si>
   <si>
     <t>OperationOutcome with hints and warnings (for batch/transaction)</t>
@@ -2607,10 +2611,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -3237,7 +3241,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
@@ -5860,16 +5864,16 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -5941,7 +5945,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5964,19 +5968,19 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
